--- a/datos_limpios.xlsx
+++ b/datos_limpios.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="processed_data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/datos_limpios.xlsx
+++ b/datos_limpios.xlsx
@@ -699,19 +699,19 @@
         </is>
       </c>
       <c r="Z2" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AC2" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AD2" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -828,19 +828,19 @@
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AA3" t="n">
         <v>1370</v>
       </c>
       <c r="AB3" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC3" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AD3" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -953,19 +953,19 @@
         </is>
       </c>
       <c r="Z4" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AA4" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AB4" t="n">
         <v>260</v>
       </c>
       <c r="AC4" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AD4" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -1082,19 +1082,19 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AA5" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AB5" t="n">
         <v>472</v>
       </c>
       <c r="AC5" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AD5" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1213,13 +1213,13 @@
         <v>208</v>
       </c>
       <c r="AB6" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AC6" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AD6" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1332,19 +1332,19 @@
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AA7" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AB7" t="n">
         <v>186</v>
       </c>
       <c r="AC7" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AD7" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>6.49</v>
+        <v>6.48</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1461,19 +1461,19 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>7210</v>
+        <v>7292</v>
       </c>
       <c r="AA8" t="n">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="AB8" t="n">
         <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>6444</v>
+        <v>6447</v>
       </c>
       <c r="AD8" t="n">
-        <v>17540</v>
+        <v>17554</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1590,19 +1590,19 @@
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>10791</v>
+        <v>10810</v>
       </c>
       <c r="AA9" t="n">
-        <v>5347</v>
+        <v>5349</v>
       </c>
       <c r="AB9" t="n">
         <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>7310</v>
+        <v>7313</v>
       </c>
       <c r="AD9" t="n">
-        <v>18711</v>
+        <v>18718</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1719,19 +1719,19 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA10" t="n">
         <v>716</v>
       </c>
       <c r="AB10" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC10" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD10" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1848,19 +1848,19 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AA11" t="n">
         <v>943</v>
       </c>
       <c r="AB11" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AC11" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AD11" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1977,19 +1977,19 @@
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>4391</v>
+        <v>4371</v>
       </c>
       <c r="AA12" t="n">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="AB12" t="n">
         <v>445</v>
       </c>
       <c r="AC12" t="n">
-        <v>31554</v>
+        <v>31566</v>
       </c>
       <c r="AD12" t="n">
-        <v>85644</v>
+        <v>85700</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AA13" t="n">
         <v>484</v>
@@ -2115,10 +2115,10 @@
         <v>4174</v>
       </c>
       <c r="AC13" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AD13" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -2235,19 +2235,19 @@
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AA14" t="n">
         <v>1136</v>
       </c>
       <c r="AB14" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AC14" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AD14" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -2360,19 +2360,19 @@
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA15" t="n">
         <v>639</v>
       </c>
       <c r="AB15" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AC15" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AD15" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -2489,19 +2489,19 @@
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="AA16" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AB16" t="n">
         <v>199</v>
       </c>
       <c r="AC16" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="AD16" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -2618,19 +2618,19 @@
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AA17" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AB17" t="n">
         <v>1281</v>
       </c>
       <c r="AC17" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AD17" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AA18" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AB18" t="n">
         <v>360</v>
       </c>
       <c r="AC18" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AD18" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
@@ -2876,19 +2876,19 @@
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA19" t="n">
         <v>466</v>
       </c>
       <c r="AB19" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC19" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD19" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AA20" t="n">
         <v>944</v>
@@ -3014,10 +3014,10 @@
         <v>4172</v>
       </c>
       <c r="AC20" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AD20" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
@@ -3134,19 +3134,19 @@
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="AA21" t="n">
-        <v>4667</v>
+        <v>4671</v>
       </c>
       <c r="AB21" t="n">
         <v>244</v>
       </c>
       <c r="AC21" t="n">
-        <v>13919</v>
+        <v>13923</v>
       </c>
       <c r="AD21" t="n">
-        <v>26125</v>
+        <v>26156</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="Z22" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AA22" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AB22" t="n">
         <v>1388</v>
       </c>
       <c r="AC22" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AD22" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -3398,13 +3398,13 @@
         <v>302</v>
       </c>
       <c r="AB23" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AC23" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AD23" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA24" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB24" t="n">
         <v>3677</v>
       </c>
       <c r="AC24" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD24" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -3650,19 +3650,19 @@
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="AA25" t="n">
         <v>3029</v>
       </c>
       <c r="AB25" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC25" t="n">
-        <v>29705</v>
+        <v>29709</v>
       </c>
       <c r="AD25" t="n">
-        <v>60992</v>
+        <v>61034</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -3781,13 +3781,13 @@
         <v>341</v>
       </c>
       <c r="AB26" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AC26" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AD26" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
@@ -3904,19 +3904,19 @@
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AA27" t="n">
         <v>1419</v>
       </c>
       <c r="AB27" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AC27" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AD27" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -4039,13 +4039,13 @@
         <v>122</v>
       </c>
       <c r="AB28" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AC28" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AD28" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -4162,19 +4162,19 @@
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA29" t="n">
         <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC29" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD29" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
         </is>
       </c>
       <c r="Z30" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA30" t="n">
         <v>467</v>
@@ -4300,10 +4300,10 @@
         <v>10255</v>
       </c>
       <c r="AC30" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD30" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
@@ -4416,19 +4416,19 @@
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AA31" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AB31" t="n">
         <v>96</v>
       </c>
       <c r="AC31" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AD31" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
@@ -4545,19 +4545,19 @@
         </is>
       </c>
       <c r="Z32" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AA32" t="n">
         <v>772</v>
       </c>
       <c r="AB32" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AC32" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AD32" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
@@ -4674,19 +4674,19 @@
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="AA33" t="n">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AB33" t="n">
         <v>2416</v>
       </c>
       <c r="AC33" t="n">
-        <v>92388</v>
+        <v>92422</v>
       </c>
       <c r="AD33" t="n">
-        <v>165966</v>
+        <v>166077</v>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
@@ -4799,19 +4799,19 @@
         </is>
       </c>
       <c r="Z34" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AA34" t="n">
         <v>177</v>
       </c>
       <c r="AB34" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AC34" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AD34" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>2060</v>
+        <v>2075</v>
       </c>
       <c r="AA35" t="n">
         <v>964</v>
@@ -4933,10 +4933,10 @@
         <v>766</v>
       </c>
       <c r="AC35" t="n">
-        <v>150590</v>
+        <v>150633</v>
       </c>
       <c r="AD35" t="n">
-        <v>271722</v>
+        <v>271802</v>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
@@ -5053,19 +5053,19 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="AA36" t="n">
         <v>1695</v>
       </c>
       <c r="AB36" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AC36" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="AD36" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
@@ -5178,19 +5178,19 @@
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="AA37" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="AB37" t="n">
         <v>187</v>
       </c>
       <c r="AC37" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="AD37" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
@@ -5307,19 +5307,19 @@
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AA38" t="n">
         <v>1942</v>
       </c>
       <c r="AB38" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC38" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AD38" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AA39" t="n">
         <v>1361</v>
@@ -5445,10 +5445,10 @@
         <v>2067</v>
       </c>
       <c r="AC39" t="n">
-        <v>91608</v>
+        <v>91626</v>
       </c>
       <c r="AD39" t="n">
-        <v>190549</v>
+        <v>190661</v>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
@@ -5565,19 +5565,19 @@
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AA40" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AB40" t="n">
         <v>3046</v>
       </c>
       <c r="AC40" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AD40" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
@@ -5694,19 +5694,19 @@
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AA41" t="n">
         <v>638</v>
       </c>
       <c r="AB41" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AC41" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AD41" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
@@ -5823,19 +5823,19 @@
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>4726</v>
+        <v>4753</v>
       </c>
       <c r="AA42" t="n">
-        <v>5638</v>
+        <v>5642</v>
       </c>
       <c r="AB42" t="n">
         <v>16</v>
       </c>
       <c r="AC42" t="n">
-        <v>6953</v>
+        <v>6954</v>
       </c>
       <c r="AD42" t="n">
-        <v>16260</v>
+        <v>16262</v>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
@@ -5944,19 +5944,19 @@
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AA43" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AB43" t="n">
         <v>260</v>
       </c>
       <c r="AC43" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AD43" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
@@ -6069,19 +6069,19 @@
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AA44" t="n">
         <v>943</v>
       </c>
       <c r="AB44" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AC44" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AD44" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AE44" t="inlineStr">
         <is>
@@ -6194,19 +6194,19 @@
         </is>
       </c>
       <c r="Z45" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AA45" t="n">
         <v>1136</v>
       </c>
       <c r="AB45" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AC45" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AD45" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
@@ -6319,19 +6319,19 @@
         </is>
       </c>
       <c r="Z46" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA46" t="n">
         <v>42</v>
       </c>
       <c r="AB46" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC46" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD46" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE46" t="inlineStr">
         <is>
@@ -6440,19 +6440,19 @@
         </is>
       </c>
       <c r="Z47" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA47" t="n">
         <v>639</v>
       </c>
       <c r="AB47" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AC47" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AD47" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
@@ -6565,19 +6565,19 @@
         </is>
       </c>
       <c r="Z48" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AA48" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AB48" t="n">
         <v>1281</v>
       </c>
       <c r="AC48" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AD48" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
@@ -6690,19 +6690,19 @@
         </is>
       </c>
       <c r="Z49" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AA49" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AB49" t="n">
         <v>360</v>
       </c>
       <c r="AC49" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AD49" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
@@ -6815,19 +6815,19 @@
         </is>
       </c>
       <c r="Z50" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA50" t="n">
         <v>466</v>
       </c>
       <c r="AB50" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC50" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD50" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
@@ -6936,19 +6936,19 @@
         </is>
       </c>
       <c r="Z51" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AA51" t="n">
         <v>1136</v>
       </c>
       <c r="AB51" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AC51" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AD51" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AE51" t="inlineStr">
         <is>
@@ -7057,19 +7057,19 @@
         </is>
       </c>
       <c r="Z52" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AA52" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="AB52" t="n">
         <v>312</v>
       </c>
       <c r="AC52" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="AD52" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
@@ -7178,19 +7178,19 @@
         </is>
       </c>
       <c r="Z53" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA53" t="n">
         <v>9</v>
       </c>
       <c r="AB53" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC53" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD53" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE53" t="inlineStr">
         <is>
@@ -7295,19 +7295,19 @@
         </is>
       </c>
       <c r="Z54" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AA54" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AB54" t="n">
         <v>260</v>
       </c>
       <c r="AC54" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AD54" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
@@ -7416,19 +7416,19 @@
         </is>
       </c>
       <c r="Z55" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AA55" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AB55" t="n">
         <v>472</v>
       </c>
       <c r="AC55" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AD55" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="Z56" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AA56" t="n">
         <v>484</v>
@@ -7546,10 +7546,10 @@
         <v>4174</v>
       </c>
       <c r="AC56" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AD56" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
@@ -7658,19 +7658,19 @@
         </is>
       </c>
       <c r="Z57" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AA57" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AB57" t="n">
         <v>360</v>
       </c>
       <c r="AC57" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AD57" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AE57" t="inlineStr">
         <is>
@@ -7779,19 +7779,19 @@
         </is>
       </c>
       <c r="Z58" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AA58" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB58" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AC58" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AD58" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AE58" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         </is>
       </c>
       <c r="Z59" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA59" t="n">
         <v>467</v>
@@ -7909,10 +7909,10 @@
         <v>10255</v>
       </c>
       <c r="AC59" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD59" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE59" t="inlineStr">
         <is>
@@ -8021,19 +8021,19 @@
         </is>
       </c>
       <c r="Z60" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AA60" t="n">
         <v>772</v>
       </c>
       <c r="AB60" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AC60" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AD60" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
@@ -8142,19 +8142,19 @@
         </is>
       </c>
       <c r="Z61" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA61" t="n">
         <v>45</v>
       </c>
       <c r="AB61" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AC61" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AD61" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AE61" t="inlineStr">
         <is>
@@ -8259,19 +8259,19 @@
         </is>
       </c>
       <c r="Z62" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="AA62" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="AB62" t="n">
         <v>187</v>
       </c>
       <c r="AC62" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="AD62" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
@@ -8380,19 +8380,19 @@
         </is>
       </c>
       <c r="Z63" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA63" t="n">
         <v>261</v>
       </c>
       <c r="AB63" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AC63" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AD63" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AE63" t="inlineStr">
         <is>
@@ -8501,19 +8501,19 @@
         </is>
       </c>
       <c r="Z64" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AA64" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AB64" t="n">
         <v>3046</v>
       </c>
       <c r="AC64" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AD64" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AE64" t="inlineStr">
         <is>
@@ -8630,19 +8630,19 @@
         </is>
       </c>
       <c r="Z65" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA65" t="n">
         <v>17</v>
       </c>
       <c r="AB65" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AC65" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AD65" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AE65" t="inlineStr">
         <is>
@@ -8759,19 +8759,19 @@
         </is>
       </c>
       <c r="Z66" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA66" t="n">
         <v>42</v>
       </c>
       <c r="AB66" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC66" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD66" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE66" t="inlineStr">
         <is>
@@ -8884,19 +8884,19 @@
         </is>
       </c>
       <c r="Z67" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA67" t="n">
         <v>639</v>
       </c>
       <c r="AB67" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AC67" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AD67" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AE67" t="inlineStr">
         <is>
@@ -9013,19 +9013,19 @@
         </is>
       </c>
       <c r="Z68" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA68" t="n">
         <v>466</v>
       </c>
       <c r="AB68" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC68" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD68" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE68" t="inlineStr">
         <is>
@@ -9148,13 +9148,13 @@
         <v>302</v>
       </c>
       <c r="AB69" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AC69" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AD69" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AE69" t="inlineStr">
         <is>
@@ -9273,13 +9273,13 @@
         <v>341</v>
       </c>
       <c r="AB70" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AC70" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AD70" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
@@ -9396,19 +9396,19 @@
         </is>
       </c>
       <c r="Z71" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AA71" t="n">
         <v>1419</v>
       </c>
       <c r="AB71" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AC71" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AD71" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
@@ -9525,19 +9525,19 @@
         </is>
       </c>
       <c r="Z72" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA72" t="n">
         <v>9</v>
       </c>
       <c r="AB72" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC72" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD72" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         </is>
       </c>
       <c r="Z73" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA73" t="n">
         <v>467</v>
@@ -9663,10 +9663,10 @@
         <v>10255</v>
       </c>
       <c r="AC73" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD73" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE73" t="inlineStr">
         <is>
@@ -9783,19 +9783,19 @@
         </is>
       </c>
       <c r="Z74" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AA74" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AB74" t="n">
         <v>3046</v>
       </c>
       <c r="AC74" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AD74" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AE74" t="inlineStr">
         <is>
@@ -9912,19 +9912,19 @@
         </is>
       </c>
       <c r="Z75" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA75" t="n">
         <v>261</v>
       </c>
       <c r="AB75" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AC75" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AD75" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AE75" t="inlineStr">
         <is>
@@ -10037,19 +10037,19 @@
         </is>
       </c>
       <c r="Z76" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA76" t="n">
         <v>17</v>
       </c>
       <c r="AB76" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AC76" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AD76" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AE76" t="inlineStr">
         <is>
@@ -10162,19 +10162,19 @@
         </is>
       </c>
       <c r="Z77" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA77" t="n">
         <v>716</v>
       </c>
       <c r="AB77" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC77" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD77" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE77" t="inlineStr">
         <is>
@@ -10287,19 +10287,19 @@
         </is>
       </c>
       <c r="Z78" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AA78" t="n">
         <v>943</v>
       </c>
       <c r="AB78" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AC78" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AD78" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AE78" t="inlineStr">
         <is>
@@ -10412,19 +10412,19 @@
         </is>
       </c>
       <c r="Z79" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA79" t="n">
         <v>42</v>
       </c>
       <c r="AB79" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC79" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD79" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE79" t="inlineStr">
         <is>
@@ -10533,19 +10533,19 @@
         </is>
       </c>
       <c r="Z80" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA80" t="n">
         <v>639</v>
       </c>
       <c r="AB80" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AC80" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AD80" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AE80" t="inlineStr">
         <is>
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="Z81" t="n">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AA81" t="n">
         <v>1361</v>
@@ -10667,10 +10667,10 @@
         <v>2067</v>
       </c>
       <c r="AC81" t="n">
-        <v>91608</v>
+        <v>91626</v>
       </c>
       <c r="AD81" t="n">
-        <v>190549</v>
+        <v>190661</v>
       </c>
       <c r="AE81" t="inlineStr">
         <is>
@@ -10783,19 +10783,19 @@
         </is>
       </c>
       <c r="Z82" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AA82" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB82" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AC82" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AD82" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AE82" t="inlineStr">
         <is>
@@ -10908,19 +10908,19 @@
         </is>
       </c>
       <c r="Z83" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AA83" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AB83" t="n">
         <v>1388</v>
       </c>
       <c r="AC83" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AD83" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AE83" t="inlineStr">
         <is>
@@ -11033,19 +11033,19 @@
         </is>
       </c>
       <c r="Z84" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA84" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB84" t="n">
         <v>3677</v>
       </c>
       <c r="AC84" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD84" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE84" t="inlineStr">
         <is>
@@ -11160,13 +11160,13 @@
         <v>341</v>
       </c>
       <c r="AB85" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AC85" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AD85" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
@@ -11279,19 +11279,19 @@
         </is>
       </c>
       <c r="Z86" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AA86" t="n">
         <v>1419</v>
       </c>
       <c r="AB86" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AC86" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AD86" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AE86" t="inlineStr">
         <is>
@@ -11404,19 +11404,19 @@
         </is>
       </c>
       <c r="Z87" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA87" t="n">
         <v>9</v>
       </c>
       <c r="AB87" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC87" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD87" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE87" t="inlineStr">
         <is>
@@ -11529,19 +11529,19 @@
         </is>
       </c>
       <c r="Z88" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AA88" t="n">
         <v>1229</v>
       </c>
       <c r="AB88" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AC88" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AD88" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AE88" t="inlineStr">
         <is>
@@ -11654,19 +11654,19 @@
         </is>
       </c>
       <c r="Z89" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA89" t="n">
         <v>45</v>
       </c>
       <c r="AB89" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AC89" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AD89" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AE89" t="inlineStr">
         <is>
@@ -11779,19 +11779,19 @@
         </is>
       </c>
       <c r="Z90" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="AA90" t="n">
         <v>1695</v>
       </c>
       <c r="AB90" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AC90" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="AD90" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="AE90" t="inlineStr">
         <is>
@@ -11904,19 +11904,19 @@
         </is>
       </c>
       <c r="Z91" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AA91" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AB91" t="n">
         <v>3046</v>
       </c>
       <c r="AC91" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AD91" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AE91" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         </is>
       </c>
       <c r="Z92" t="n">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="AA92" t="n">
         <v>975</v>
@@ -12038,10 +12038,10 @@
         <v>5351</v>
       </c>
       <c r="AC92" t="n">
-        <v>60486</v>
+        <v>60519</v>
       </c>
       <c r="AD92" t="n">
-        <v>269599</v>
+        <v>269860</v>
       </c>
       <c r="AE92" t="inlineStr">
         <is>
@@ -12154,19 +12154,19 @@
         </is>
       </c>
       <c r="Z93" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA93" t="n">
         <v>261</v>
       </c>
       <c r="AB93" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AC93" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AD93" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AE93" t="inlineStr">
         <is>
@@ -12279,19 +12279,19 @@
         </is>
       </c>
       <c r="Z94" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AA94" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AB94" t="n">
         <v>260</v>
       </c>
       <c r="AC94" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AD94" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AE94" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         </is>
       </c>
       <c r="Z95" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AA95" t="n">
         <v>484</v>
@@ -12417,10 +12417,10 @@
         <v>4174</v>
       </c>
       <c r="AC95" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AD95" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AE95" t="inlineStr">
         <is>
@@ -12537,19 +12537,19 @@
         </is>
       </c>
       <c r="Z96" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AA96" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AB96" t="n">
         <v>1281</v>
       </c>
       <c r="AC96" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AD96" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AE96" t="inlineStr">
         <is>
@@ -12666,19 +12666,19 @@
         </is>
       </c>
       <c r="Z97" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA97" t="n">
         <v>466</v>
       </c>
       <c r="AB97" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC97" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD97" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE97" t="inlineStr">
         <is>
@@ -12795,19 +12795,19 @@
         </is>
       </c>
       <c r="Z98" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AA98" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB98" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AC98" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AD98" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AE98" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="Z99" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA99" t="n">
         <v>874</v>
@@ -12933,10 +12933,10 @@
         <v>2983</v>
       </c>
       <c r="AC99" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD99" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE99" t="inlineStr">
         <is>
@@ -13049,19 +13049,19 @@
         </is>
       </c>
       <c r="Z100" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="AA100" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="AB100" t="n">
         <v>187</v>
       </c>
       <c r="AC100" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="AD100" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="AE100" t="inlineStr">
         <is>
@@ -13178,19 +13178,19 @@
         </is>
       </c>
       <c r="Z101" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AA101" t="n">
         <v>1942</v>
       </c>
       <c r="AB101" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC101" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AD101" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AE101" t="inlineStr">
         <is>
@@ -13303,19 +13303,19 @@
         </is>
       </c>
       <c r="Z102" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="AA102" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AB102" t="n">
         <v>199</v>
       </c>
       <c r="AC102" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="AD102" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="AE102" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="Z103" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA103" t="n">
         <v>874</v>
@@ -13437,10 +13437,10 @@
         <v>2983</v>
       </c>
       <c r="AC103" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD103" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE103" t="inlineStr">
         <is>
@@ -13553,19 +13553,19 @@
         </is>
       </c>
       <c r="Z104" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AA104" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AB104" t="n">
         <v>472</v>
       </c>
       <c r="AC104" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AD104" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AE104" t="inlineStr">
         <is>
@@ -13678,19 +13678,19 @@
         </is>
       </c>
       <c r="Z105" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AA105" t="n">
         <v>638</v>
       </c>
       <c r="AB105" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AC105" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AD105" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AE105" t="inlineStr">
         <is>
@@ -13803,19 +13803,19 @@
         </is>
       </c>
       <c r="Z106" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA106" t="n">
         <v>42</v>
       </c>
       <c r="AB106" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC106" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD106" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE106" t="inlineStr">
         <is>
@@ -13924,19 +13924,19 @@
         </is>
       </c>
       <c r="Z107" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA107" t="n">
         <v>639</v>
       </c>
       <c r="AB107" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AC107" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AD107" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AE107" t="inlineStr">
         <is>
@@ -14049,19 +14049,19 @@
         </is>
       </c>
       <c r="Z108" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA108" t="n">
         <v>466</v>
       </c>
       <c r="AB108" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC108" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD108" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE108" t="inlineStr">
         <is>
@@ -14174,19 +14174,19 @@
         </is>
       </c>
       <c r="Z109" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA109" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB109" t="n">
         <v>3677</v>
       </c>
       <c r="AC109" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD109" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE109" t="inlineStr">
         <is>
@@ -14299,19 +14299,19 @@
         </is>
       </c>
       <c r="Z110" t="n">
-        <v>2369</v>
+        <v>2353</v>
       </c>
       <c r="AA110" t="n">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="AB110" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AC110" t="n">
-        <v>43442</v>
+        <v>43447</v>
       </c>
       <c r="AD110" t="n">
-        <v>107825</v>
+        <v>107867</v>
       </c>
       <c r="AE110" t="inlineStr">
         <is>
@@ -14424,19 +14424,19 @@
         </is>
       </c>
       <c r="Z111" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AA111" t="n">
         <v>1229</v>
       </c>
       <c r="AB111" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AC111" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AD111" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AE111" t="inlineStr">
         <is>
@@ -14545,19 +14545,19 @@
         </is>
       </c>
       <c r="Z112" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AA112" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AB112" t="n">
         <v>96</v>
       </c>
       <c r="AC112" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AD112" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AE112" t="inlineStr">
         <is>
@@ -14670,19 +14670,19 @@
         </is>
       </c>
       <c r="Z113" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AA113" t="n">
         <v>772</v>
       </c>
       <c r="AB113" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AC113" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AD113" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AE113" t="inlineStr">
         <is>
@@ -14795,19 +14795,19 @@
         </is>
       </c>
       <c r="Z114" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA114" t="n">
         <v>45</v>
       </c>
       <c r="AB114" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AC114" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AD114" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AE114" t="inlineStr">
         <is>
@@ -14916,19 +14916,19 @@
         </is>
       </c>
       <c r="Z115" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AA115" t="n">
         <v>177</v>
       </c>
       <c r="AB115" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AC115" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AD115" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AE115" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         </is>
       </c>
       <c r="Z116" t="n">
-        <v>2060</v>
+        <v>2075</v>
       </c>
       <c r="AA116" t="n">
         <v>964</v>
@@ -15046,10 +15046,10 @@
         <v>766</v>
       </c>
       <c r="AC116" t="n">
-        <v>150590</v>
+        <v>150633</v>
       </c>
       <c r="AD116" t="n">
-        <v>271722</v>
+        <v>271802</v>
       </c>
       <c r="AE116" t="inlineStr">
         <is>
@@ -15162,19 +15162,19 @@
         </is>
       </c>
       <c r="Z117" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AA117" t="n">
         <v>1370</v>
       </c>
       <c r="AB117" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC117" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AD117" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AE117" t="inlineStr">
         <is>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="Z118" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AA118" t="n">
         <v>484</v>
@@ -15296,10 +15296,10 @@
         <v>4174</v>
       </c>
       <c r="AC118" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AD118" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AE118" t="inlineStr">
         <is>
@@ -15412,7 +15412,7 @@
         </is>
       </c>
       <c r="Z119" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AA119" t="n">
         <v>944</v>
@@ -15421,10 +15421,10 @@
         <v>4172</v>
       </c>
       <c r="AC119" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AD119" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AE119" t="inlineStr">
         <is>
@@ -15537,19 +15537,19 @@
         </is>
       </c>
       <c r="Z120" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="AA120" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AB120" t="n">
         <v>1136</v>
       </c>
       <c r="AC120" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="AD120" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="AE120" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         </is>
       </c>
       <c r="Z121" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA121" t="n">
         <v>467</v>
@@ -15671,10 +15671,10 @@
         <v>10255</v>
       </c>
       <c r="AC121" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD121" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE121" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="Z122" t="n">
-        <v>4391</v>
+        <v>4384</v>
       </c>
       <c r="AA122" t="n">
         <v>912</v>
@@ -15796,10 +15796,10 @@
         <v>1465</v>
       </c>
       <c r="AC122" t="n">
-        <v>137883</v>
+        <v>137897</v>
       </c>
       <c r="AD122" t="n">
-        <v>286332</v>
+        <v>286467</v>
       </c>
       <c r="AE122" t="inlineStr">
         <is>
@@ -15912,19 +15912,19 @@
         </is>
       </c>
       <c r="Z123" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA123" t="n">
         <v>9</v>
       </c>
       <c r="AB123" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC123" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD123" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE123" t="inlineStr">
         <is>
@@ -16041,19 +16041,19 @@
         </is>
       </c>
       <c r="Z124" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AA124" t="n">
         <v>1370</v>
       </c>
       <c r="AB124" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC124" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AD124" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AE124" t="inlineStr">
         <is>
@@ -16166,19 +16166,19 @@
         </is>
       </c>
       <c r="Z125" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AA125" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AB125" t="n">
         <v>186</v>
       </c>
       <c r="AC125" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AD125" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AE125" t="inlineStr">
         <is>
@@ -16295,19 +16295,19 @@
         </is>
       </c>
       <c r="Z126" t="n">
-        <v>10791</v>
+        <v>10810</v>
       </c>
       <c r="AA126" t="n">
-        <v>5347</v>
+        <v>5349</v>
       </c>
       <c r="AB126" t="n">
         <v>22</v>
       </c>
       <c r="AC126" t="n">
-        <v>7310</v>
+        <v>7313</v>
       </c>
       <c r="AD126" t="n">
-        <v>18711</v>
+        <v>18718</v>
       </c>
       <c r="AE126" t="inlineStr">
         <is>
@@ -16424,7 +16424,7 @@
         </is>
       </c>
       <c r="Z127" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AA127" t="n">
         <v>484</v>
@@ -16433,10 +16433,10 @@
         <v>4174</v>
       </c>
       <c r="AC127" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AD127" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AE127" t="inlineStr">
         <is>
@@ -16553,19 +16553,19 @@
         </is>
       </c>
       <c r="Z128" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AA128" t="n">
         <v>1136</v>
       </c>
       <c r="AB128" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AC128" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AD128" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AE128" t="inlineStr">
         <is>
@@ -16682,19 +16682,19 @@
         </is>
       </c>
       <c r="Z129" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AA129" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AB129" t="n">
         <v>1281</v>
       </c>
       <c r="AC129" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AD129" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AE129" t="inlineStr">
         <is>
@@ -16811,19 +16811,19 @@
         </is>
       </c>
       <c r="Z130" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AA130" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AB130" t="n">
         <v>360</v>
       </c>
       <c r="AC130" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AD130" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AE130" t="inlineStr">
         <is>
@@ -16940,19 +16940,19 @@
         </is>
       </c>
       <c r="Z131" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA131" t="n">
         <v>466</v>
       </c>
       <c r="AB131" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC131" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD131" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE131" t="inlineStr">
         <is>
@@ -17069,19 +17069,19 @@
         </is>
       </c>
       <c r="Z132" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AA132" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB132" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AC132" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AD132" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AE132" t="inlineStr">
         <is>
@@ -17198,7 +17198,7 @@
         </is>
       </c>
       <c r="Z133" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA133" t="n">
         <v>874</v>
@@ -17207,10 +17207,10 @@
         <v>2983</v>
       </c>
       <c r="AC133" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD133" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE133" t="inlineStr">
         <is>
@@ -17327,19 +17327,19 @@
         </is>
       </c>
       <c r="Z134" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA134" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB134" t="n">
         <v>3677</v>
       </c>
       <c r="AC134" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD134" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE134" t="inlineStr">
         <is>
@@ -17456,19 +17456,19 @@
         </is>
       </c>
       <c r="Z135" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="AA135" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AB135" t="n">
         <v>1136</v>
       </c>
       <c r="AC135" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="AD135" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="AE135" t="inlineStr">
         <is>
@@ -17585,19 +17585,19 @@
         </is>
       </c>
       <c r="Z136" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AA136" t="n">
         <v>1419</v>
       </c>
       <c r="AB136" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AC136" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AD136" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AE136" t="inlineStr">
         <is>
@@ -17714,19 +17714,19 @@
         </is>
       </c>
       <c r="Z137" t="n">
-        <v>2369</v>
+        <v>2353</v>
       </c>
       <c r="AA137" t="n">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="AB137" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AC137" t="n">
-        <v>43442</v>
+        <v>43447</v>
       </c>
       <c r="AD137" t="n">
-        <v>107825</v>
+        <v>107867</v>
       </c>
       <c r="AE137" t="inlineStr">
         <is>
@@ -17843,19 +17843,19 @@
         </is>
       </c>
       <c r="Z138" t="n">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="AA138" t="n">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="AB138" t="n">
         <v>1015</v>
       </c>
       <c r="AC138" t="n">
-        <v>34966</v>
+        <v>34977</v>
       </c>
       <c r="AD138" t="n">
-        <v>67980</v>
+        <v>68011</v>
       </c>
       <c r="AE138" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         </is>
       </c>
       <c r="Z139" t="n">
-        <v>2387</v>
+        <v>2413</v>
       </c>
       <c r="AA139" t="n">
         <v>1996</v>
@@ -17981,10 +17981,10 @@
         <v>1142</v>
       </c>
       <c r="AC139" t="n">
-        <v>52930</v>
+        <v>52934</v>
       </c>
       <c r="AD139" t="n">
-        <v>119163</v>
+        <v>119221</v>
       </c>
       <c r="AE139" t="inlineStr">
         <is>
@@ -18101,19 +18101,19 @@
         </is>
       </c>
       <c r="Z140" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AA140" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="AB140" t="n">
         <v>312</v>
       </c>
       <c r="AC140" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="AD140" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="AE140" t="inlineStr">
         <is>
@@ -18230,19 +18230,19 @@
         </is>
       </c>
       <c r="Z141" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA141" t="n">
         <v>9</v>
       </c>
       <c r="AB141" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC141" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD141" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE141" t="inlineStr">
         <is>
@@ -18359,19 +18359,19 @@
         </is>
       </c>
       <c r="Z142" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AA142" t="n">
         <v>1229</v>
       </c>
       <c r="AB142" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AC142" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AD142" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AE142" t="inlineStr">
         <is>
@@ -18488,19 +18488,19 @@
         </is>
       </c>
       <c r="Z143" t="n">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="AA143" t="n">
         <v>2128</v>
       </c>
       <c r="AB143" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AC143" t="n">
-        <v>60527</v>
+        <v>60538</v>
       </c>
       <c r="AD143" t="n">
-        <v>108669</v>
+        <v>108707</v>
       </c>
       <c r="AE143" t="inlineStr">
         <is>
@@ -18617,7 +18617,7 @@
         </is>
       </c>
       <c r="Z144" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA144" t="n">
         <v>467</v>
@@ -18626,10 +18626,10 @@
         <v>10255</v>
       </c>
       <c r="AC144" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD144" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE144" t="inlineStr">
         <is>
@@ -18742,19 +18742,19 @@
         </is>
       </c>
       <c r="Z145" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AA145" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AB145" t="n">
         <v>96</v>
       </c>
       <c r="AC145" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AD145" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AE145" t="inlineStr">
         <is>
@@ -18867,19 +18867,19 @@
         </is>
       </c>
       <c r="Z146" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA146" t="n">
         <v>913</v>
       </c>
       <c r="AB146" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AC146" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AD146" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AE146" t="inlineStr">
         <is>
@@ -18992,19 +18992,19 @@
         </is>
       </c>
       <c r="Z147" t="n">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="AA147" t="n">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="AB147" t="n">
         <v>182</v>
       </c>
       <c r="AC147" t="n">
-        <v>28571</v>
+        <v>28583</v>
       </c>
       <c r="AD147" t="n">
-        <v>50228</v>
+        <v>50248</v>
       </c>
       <c r="AE147" t="inlineStr">
         <is>
@@ -19121,19 +19121,19 @@
         </is>
       </c>
       <c r="Z148" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA148" t="n">
         <v>45</v>
       </c>
       <c r="AB148" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AC148" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AD148" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AE148" t="inlineStr">
         <is>
@@ -19246,19 +19246,19 @@
         </is>
       </c>
       <c r="Z149" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AA149" t="n">
         <v>177</v>
       </c>
       <c r="AB149" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AC149" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AD149" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AE149" t="inlineStr">
         <is>
@@ -19375,19 +19375,19 @@
         </is>
       </c>
       <c r="Z150" t="n">
-        <v>3160</v>
+        <v>3147</v>
       </c>
       <c r="AA150" t="n">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="AB150" t="n">
         <v>276</v>
       </c>
       <c r="AC150" t="n">
-        <v>15826</v>
+        <v>15829</v>
       </c>
       <c r="AD150" t="n">
-        <v>50995</v>
+        <v>51050</v>
       </c>
       <c r="AE150" t="inlineStr">
         <is>
@@ -19504,19 +19504,19 @@
         </is>
       </c>
       <c r="Z151" t="n">
-        <v>2986</v>
+        <v>2968</v>
       </c>
       <c r="AA151" t="n">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="AB151" t="n">
         <v>1379</v>
       </c>
       <c r="AC151" t="n">
-        <v>82208</v>
+        <v>82214</v>
       </c>
       <c r="AD151" t="n">
-        <v>192365</v>
+        <v>192416</v>
       </c>
       <c r="AE151" t="inlineStr">
         <is>
@@ -19633,19 +19633,19 @@
         </is>
       </c>
       <c r="Z152" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AA152" t="n">
         <v>1942</v>
       </c>
       <c r="AB152" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC152" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AD152" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AE152" t="inlineStr">
         <is>
@@ -19762,19 +19762,19 @@
         </is>
       </c>
       <c r="Z153" t="n">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="AA153" t="n">
         <v>1317</v>
       </c>
       <c r="AB153" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AC153" t="n">
-        <v>80291</v>
+        <v>80311</v>
       </c>
       <c r="AD153" t="n">
-        <v>196984</v>
+        <v>197088</v>
       </c>
       <c r="AE153" t="inlineStr">
         <is>
@@ -19891,19 +19891,19 @@
         </is>
       </c>
       <c r="Z154" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA154" t="n">
         <v>716</v>
       </c>
       <c r="AB154" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC154" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD154" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE154" t="inlineStr">
         <is>
@@ -20020,19 +20020,19 @@
         </is>
       </c>
       <c r="Z155" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AA155" t="n">
         <v>772</v>
       </c>
       <c r="AB155" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AC155" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AD155" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AE155" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         </is>
       </c>
       <c r="Z156" t="n">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="AA156" t="n">
         <v>975</v>
@@ -20158,10 +20158,10 @@
         <v>5351</v>
       </c>
       <c r="AC156" t="n">
-        <v>60486</v>
+        <v>60519</v>
       </c>
       <c r="AD156" t="n">
-        <v>269599</v>
+        <v>269860</v>
       </c>
       <c r="AE156" t="inlineStr">
         <is>
@@ -20266,19 +20266,19 @@
         </is>
       </c>
       <c r="Z157" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AA157" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AB157" t="n">
         <v>186</v>
       </c>
       <c r="AC157" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AD157" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AE157" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="Z158" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="AA158" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AB158" t="n">
         <v>199</v>
       </c>
       <c r="AC158" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="AD158" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="AE158" t="inlineStr">
         <is>
@@ -20508,19 +20508,19 @@
         </is>
       </c>
       <c r="Z159" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA159" t="n">
         <v>466</v>
       </c>
       <c r="AB159" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC159" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD159" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE159" t="inlineStr">
         <is>
@@ -20629,19 +20629,19 @@
         </is>
       </c>
       <c r="Z160" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AA160" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB160" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AC160" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AD160" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AE160" t="inlineStr">
         <is>
@@ -20746,19 +20746,19 @@
         </is>
       </c>
       <c r="Z161" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA161" t="n">
         <v>913</v>
       </c>
       <c r="AB161" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AC161" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AD161" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AE161" t="inlineStr">
         <is>
@@ -20881,13 +20881,13 @@
         <v>122</v>
       </c>
       <c r="AB162" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AC162" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AD162" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AE162" t="inlineStr">
         <is>
@@ -21004,19 +21004,19 @@
         </is>
       </c>
       <c r="Z163" t="n">
-        <v>1097</v>
+        <v>1112</v>
       </c>
       <c r="AA163" t="n">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="AB163" t="n">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="AC163" t="n">
-        <v>18564</v>
+        <v>18575</v>
       </c>
       <c r="AD163" t="n">
-        <v>52430</v>
+        <v>52494</v>
       </c>
       <c r="AE163" t="inlineStr">
         <is>
@@ -21133,19 +21133,19 @@
         </is>
       </c>
       <c r="Z164" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AA164" t="n">
         <v>1370</v>
       </c>
       <c r="AB164" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC164" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AD164" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AE164" t="inlineStr">
         <is>
@@ -21262,19 +21262,19 @@
         </is>
       </c>
       <c r="Z165" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AA165" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AB165" t="n">
         <v>472</v>
       </c>
       <c r="AC165" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AD165" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AE165" t="inlineStr">
         <is>
@@ -21387,19 +21387,19 @@
         </is>
       </c>
       <c r="Z166" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AA166" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AB166" t="n">
         <v>186</v>
       </c>
       <c r="AC166" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AD166" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AE166" t="inlineStr">
         <is>
@@ -21516,19 +21516,19 @@
         </is>
       </c>
       <c r="Z167" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA167" t="n">
         <v>716</v>
       </c>
       <c r="AB167" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC167" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD167" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE167" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="Z168" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AA168" t="n">
         <v>484</v>
@@ -21654,10 +21654,10 @@
         <v>4174</v>
       </c>
       <c r="AC168" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AD168" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AE168" t="inlineStr">
         <is>
@@ -21774,19 +21774,19 @@
         </is>
       </c>
       <c r="Z169" t="n">
-        <v>5915</v>
+        <v>5919</v>
       </c>
       <c r="AA169" t="n">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AB169" t="n">
         <v>199</v>
       </c>
       <c r="AC169" t="n">
-        <v>31399</v>
+        <v>31398</v>
       </c>
       <c r="AD169" t="n">
-        <v>78040</v>
+        <v>78057</v>
       </c>
       <c r="AE169" t="inlineStr">
         <is>
@@ -21903,19 +21903,19 @@
         </is>
       </c>
       <c r="Z170" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AA170" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AB170" t="n">
         <v>360</v>
       </c>
       <c r="AC170" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AD170" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AE170" t="inlineStr">
         <is>
@@ -22032,19 +22032,19 @@
         </is>
       </c>
       <c r="Z171" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA171" t="n">
         <v>466</v>
       </c>
       <c r="AB171" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC171" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD171" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE171" t="inlineStr">
         <is>
@@ -22161,19 +22161,19 @@
         </is>
       </c>
       <c r="Z172" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AA172" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB172" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AC172" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AD172" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AE172" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         </is>
       </c>
       <c r="Z173" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA173" t="n">
         <v>874</v>
@@ -22299,10 +22299,10 @@
         <v>2983</v>
       </c>
       <c r="AC173" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD173" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE173" t="inlineStr">
         <is>
@@ -22419,7 +22419,7 @@
         </is>
       </c>
       <c r="Z174" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AA174" t="n">
         <v>944</v>
@@ -22428,10 +22428,10 @@
         <v>4172</v>
       </c>
       <c r="AC174" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AD174" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AE174" t="inlineStr">
         <is>
@@ -22548,19 +22548,19 @@
         </is>
       </c>
       <c r="Z175" t="n">
-        <v>1136</v>
+        <v>1152</v>
       </c>
       <c r="AA175" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="AB175" t="n">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="AC175" t="n">
-        <v>64290</v>
+        <v>64341</v>
       </c>
       <c r="AD175" t="n">
-        <v>142532</v>
+        <v>142699</v>
       </c>
       <c r="AE175" t="inlineStr">
         <is>
@@ -22677,19 +22677,19 @@
         </is>
       </c>
       <c r="Z176" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA176" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB176" t="n">
         <v>3677</v>
       </c>
       <c r="AC176" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD176" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE176" t="inlineStr">
         <is>
@@ -22806,19 +22806,19 @@
         </is>
       </c>
       <c r="Z177" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="AA177" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AB177" t="n">
         <v>1136</v>
       </c>
       <c r="AC177" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="AD177" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="AE177" t="inlineStr">
         <is>
@@ -22935,19 +22935,19 @@
         </is>
       </c>
       <c r="Z178" t="n">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="AA178" t="n">
         <v>3029</v>
       </c>
       <c r="AB178" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC178" t="n">
-        <v>29705</v>
+        <v>29709</v>
       </c>
       <c r="AD178" t="n">
-        <v>60992</v>
+        <v>61034</v>
       </c>
       <c r="AE178" t="inlineStr">
         <is>
@@ -23064,19 +23064,19 @@
         </is>
       </c>
       <c r="Z179" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AA179" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="AB179" t="n">
         <v>312</v>
       </c>
       <c r="AC179" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="AD179" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="AE179" t="inlineStr">
         <is>
@@ -23193,19 +23193,19 @@
         </is>
       </c>
       <c r="Z180" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AA180" t="n">
         <v>772</v>
       </c>
       <c r="AB180" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AC180" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AD180" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AE180" t="inlineStr">
         <is>
@@ -23322,19 +23322,19 @@
         </is>
       </c>
       <c r="Z181" t="n">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="AA181" t="n">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AB181" t="n">
         <v>2416</v>
       </c>
       <c r="AC181" t="n">
-        <v>92388</v>
+        <v>92422</v>
       </c>
       <c r="AD181" t="n">
-        <v>165966</v>
+        <v>166077</v>
       </c>
       <c r="AE181" t="inlineStr">
         <is>
@@ -23447,19 +23447,19 @@
         </is>
       </c>
       <c r="Z182" t="n">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="AA182" t="n">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="AB182" t="n">
         <v>182</v>
       </c>
       <c r="AC182" t="n">
-        <v>28571</v>
+        <v>28583</v>
       </c>
       <c r="AD182" t="n">
-        <v>50228</v>
+        <v>50248</v>
       </c>
       <c r="AE182" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         </is>
       </c>
       <c r="Z183" t="n">
-        <v>4391</v>
+        <v>4384</v>
       </c>
       <c r="AA183" t="n">
         <v>912</v>
@@ -23585,10 +23585,10 @@
         <v>1465</v>
       </c>
       <c r="AC183" t="n">
-        <v>137883</v>
+        <v>137897</v>
       </c>
       <c r="AD183" t="n">
-        <v>286332</v>
+        <v>286467</v>
       </c>
       <c r="AE183" t="inlineStr">
         <is>
@@ -23705,19 +23705,19 @@
         </is>
       </c>
       <c r="Z184" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AA184" t="n">
         <v>1942</v>
       </c>
       <c r="AB184" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC184" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AD184" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AE184" t="inlineStr">
         <is>
@@ -23834,19 +23834,19 @@
         </is>
       </c>
       <c r="Z185" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AA185" t="n">
         <v>638</v>
       </c>
       <c r="AB185" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AC185" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AD185" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AE185" t="inlineStr">
         <is>
@@ -23963,19 +23963,19 @@
         </is>
       </c>
       <c r="Z186" t="n">
-        <v>8302</v>
+        <v>8286</v>
       </c>
       <c r="AA186" t="n">
-        <v>6418</v>
+        <v>6424</v>
       </c>
       <c r="AB186" t="n">
         <v>14</v>
       </c>
       <c r="AC186" t="n">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="AD186" t="n">
-        <v>11592</v>
+        <v>11597</v>
       </c>
       <c r="AE186" t="inlineStr">
         <is>
@@ -24092,19 +24092,19 @@
         </is>
       </c>
       <c r="Z187" t="n">
-        <v>1475</v>
+        <v>1482</v>
       </c>
       <c r="AA187" t="n">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="AB187" t="n">
         <v>1490</v>
       </c>
       <c r="AC187" t="n">
-        <v>53125</v>
+        <v>53137</v>
       </c>
       <c r="AD187" t="n">
-        <v>103982</v>
+        <v>104025</v>
       </c>
       <c r="AE187" t="inlineStr">
         <is>
@@ -24221,19 +24221,19 @@
         </is>
       </c>
       <c r="Z188" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA188" t="n">
         <v>9</v>
       </c>
       <c r="AB188" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC188" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD188" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE188" t="inlineStr">
         <is>
@@ -24342,19 +24342,19 @@
         </is>
       </c>
       <c r="Z189" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AA189" t="n">
         <v>1370</v>
       </c>
       <c r="AB189" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC189" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AD189" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AE189" t="inlineStr">
         <is>
@@ -24463,19 +24463,19 @@
         </is>
       </c>
       <c r="Z190" t="n">
-        <v>3091</v>
+        <v>3072</v>
       </c>
       <c r="AA190" t="n">
         <v>3029</v>
       </c>
       <c r="AB190" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC190" t="n">
-        <v>29705</v>
+        <v>29709</v>
       </c>
       <c r="AD190" t="n">
-        <v>60992</v>
+        <v>61034</v>
       </c>
       <c r="AE190" t="inlineStr">
         <is>
@@ -24584,19 +24584,19 @@
         </is>
       </c>
       <c r="Z191" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA191" t="n">
         <v>9</v>
       </c>
       <c r="AB191" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC191" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD191" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE191" t="inlineStr">
         <is>
@@ -24705,19 +24705,19 @@
         </is>
       </c>
       <c r="Z192" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA192" t="n">
         <v>45</v>
       </c>
       <c r="AB192" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AC192" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AD192" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AE192" t="inlineStr">
         <is>
@@ -24822,19 +24822,19 @@
         </is>
       </c>
       <c r="Z193" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AA193" t="n">
         <v>177</v>
       </c>
       <c r="AB193" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AC193" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AD193" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AE193" t="inlineStr">
         <is>
@@ -24943,19 +24943,19 @@
         </is>
       </c>
       <c r="Z194" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AA194" t="n">
         <v>638</v>
       </c>
       <c r="AB194" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AC194" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AD194" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AE194" t="inlineStr">
         <is>
@@ -25064,19 +25064,19 @@
         </is>
       </c>
       <c r="Z195" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AA195" t="n">
         <v>1136</v>
       </c>
       <c r="AB195" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AC195" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AD195" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AE195" t="inlineStr">
         <is>
@@ -25185,19 +25185,19 @@
         </is>
       </c>
       <c r="Z196" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA196" t="n">
         <v>17</v>
       </c>
       <c r="AB196" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AC196" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AD196" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AE196" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         </is>
       </c>
       <c r="Z197" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA197" t="n">
         <v>467</v>
@@ -25315,10 +25315,10 @@
         <v>10255</v>
       </c>
       <c r="AC197" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD197" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE197" t="inlineStr">
         <is>
@@ -25435,19 +25435,19 @@
         </is>
       </c>
       <c r="Z198" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA198" t="n">
         <v>17</v>
       </c>
       <c r="AB198" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AC198" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AD198" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AE198" t="inlineStr">
         <is>
@@ -25566,13 +25566,13 @@
         <v>208</v>
       </c>
       <c r="AB199" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AC199" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AD199" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AE199" t="inlineStr">
         <is>
@@ -25689,19 +25689,19 @@
         </is>
       </c>
       <c r="Z200" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA200" t="n">
         <v>716</v>
       </c>
       <c r="AB200" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC200" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD200" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE200" t="inlineStr">
         <is>
@@ -25818,19 +25818,19 @@
         </is>
       </c>
       <c r="Z201" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA201" t="n">
         <v>42</v>
       </c>
       <c r="AB201" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC201" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD201" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE201" t="inlineStr">
         <is>
@@ -25947,19 +25947,19 @@
         </is>
       </c>
       <c r="Z202" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AA202" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AB202" t="n">
         <v>1281</v>
       </c>
       <c r="AC202" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AD202" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AE202" t="inlineStr">
         <is>
@@ -26076,19 +26076,19 @@
         </is>
       </c>
       <c r="Z203" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AA203" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AB203" t="n">
         <v>360</v>
       </c>
       <c r="AC203" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AD203" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AE203" t="inlineStr">
         <is>
@@ -26205,19 +26205,19 @@
         </is>
       </c>
       <c r="Z204" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA204" t="n">
         <v>466</v>
       </c>
       <c r="AB204" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC204" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD204" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE204" t="inlineStr">
         <is>
@@ -26334,19 +26334,19 @@
         </is>
       </c>
       <c r="Z205" t="n">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="AA205" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AB205" t="n">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AC205" t="n">
-        <v>151482</v>
+        <v>151505</v>
       </c>
       <c r="AD205" t="n">
-        <v>268022</v>
+        <v>268113</v>
       </c>
       <c r="AE205" t="inlineStr">
         <is>
@@ -26463,7 +26463,7 @@
         </is>
       </c>
       <c r="Z206" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA206" t="n">
         <v>874</v>
@@ -26472,10 +26472,10 @@
         <v>2983</v>
       </c>
       <c r="AC206" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD206" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE206" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         </is>
       </c>
       <c r="Z207" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AA207" t="n">
         <v>944</v>
@@ -26601,10 +26601,10 @@
         <v>4172</v>
       </c>
       <c r="AC207" t="n">
-        <v>85543</v>
+        <v>85567</v>
       </c>
       <c r="AD207" t="n">
-        <v>277422</v>
+        <v>277575</v>
       </c>
       <c r="AE207" t="inlineStr">
         <is>
@@ -26721,19 +26721,19 @@
         </is>
       </c>
       <c r="Z208" t="n">
-        <v>1827</v>
+        <v>1841</v>
       </c>
       <c r="AA208" t="n">
-        <v>4667</v>
+        <v>4671</v>
       </c>
       <c r="AB208" t="n">
         <v>244</v>
       </c>
       <c r="AC208" t="n">
-        <v>13919</v>
+        <v>13923</v>
       </c>
       <c r="AD208" t="n">
-        <v>26125</v>
+        <v>26156</v>
       </c>
       <c r="AE208" t="inlineStr">
         <is>
@@ -26850,19 +26850,19 @@
         </is>
       </c>
       <c r="Z209" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AA209" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AB209" t="n">
         <v>1388</v>
       </c>
       <c r="AC209" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AD209" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AE209" t="inlineStr">
         <is>
@@ -26985,13 +26985,13 @@
         <v>302</v>
       </c>
       <c r="AB210" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AC210" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AD210" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AE210" t="inlineStr">
         <is>
@@ -27108,19 +27108,19 @@
         </is>
       </c>
       <c r="Z211" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA211" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB211" t="n">
         <v>3677</v>
       </c>
       <c r="AC211" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD211" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE211" t="inlineStr">
         <is>
@@ -27237,19 +27237,19 @@
         </is>
       </c>
       <c r="Z212" t="n">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="AA212" t="n">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="AB212" t="n">
         <v>1136</v>
       </c>
       <c r="AC212" t="n">
-        <v>67937</v>
+        <v>67958</v>
       </c>
       <c r="AD212" t="n">
-        <v>113509</v>
+        <v>113572</v>
       </c>
       <c r="AE212" t="inlineStr">
         <is>
@@ -27368,13 +27368,13 @@
         <v>341</v>
       </c>
       <c r="AB213" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AC213" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AD213" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AE213" t="inlineStr">
         <is>
@@ -27491,19 +27491,19 @@
         </is>
       </c>
       <c r="Z214" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AA214" t="n">
         <v>1419</v>
       </c>
       <c r="AB214" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AC214" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AD214" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AE214" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         </is>
       </c>
       <c r="Z215" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA215" t="n">
         <v>467</v>
@@ -27629,10 +27629,10 @@
         <v>10255</v>
       </c>
       <c r="AC215" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD215" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE215" t="inlineStr">
         <is>
@@ -27745,19 +27745,19 @@
         </is>
       </c>
       <c r="Z216" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AA216" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AB216" t="n">
         <v>96</v>
       </c>
       <c r="AC216" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AD216" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AE216" t="inlineStr">
         <is>
@@ -27870,19 +27870,19 @@
         </is>
       </c>
       <c r="Z217" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA217" t="n">
         <v>913</v>
       </c>
       <c r="AB217" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AC217" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AD217" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AE217" t="inlineStr">
         <is>
@@ -27999,19 +27999,19 @@
         </is>
       </c>
       <c r="Z218" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AA218" t="n">
         <v>772</v>
       </c>
       <c r="AB218" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AC218" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AD218" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AE218" t="inlineStr">
         <is>
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="Z219" t="n">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="AA219" t="n">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="AB219" t="n">
         <v>2416</v>
       </c>
       <c r="AC219" t="n">
-        <v>92388</v>
+        <v>92422</v>
       </c>
       <c r="AD219" t="n">
-        <v>165966</v>
+        <v>166077</v>
       </c>
       <c r="AE219" t="inlineStr">
         <is>
@@ -28257,19 +28257,19 @@
         </is>
       </c>
       <c r="Z220" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA220" t="n">
         <v>45</v>
       </c>
       <c r="AB220" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AC220" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AD220" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AE220" t="inlineStr">
         <is>
@@ -28382,19 +28382,19 @@
         </is>
       </c>
       <c r="Z221" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AA221" t="n">
         <v>177</v>
       </c>
       <c r="AB221" t="n">
-        <v>30599</v>
+        <v>30612</v>
       </c>
       <c r="AC221" t="n">
-        <v>657898</v>
+        <v>658215</v>
       </c>
       <c r="AD221" t="n">
-        <v>985843</v>
+        <v>986397</v>
       </c>
       <c r="AE221" t="inlineStr">
         <is>
@@ -28511,19 +28511,19 @@
         </is>
       </c>
       <c r="Z222" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="AA222" t="n">
         <v>1695</v>
       </c>
       <c r="AB222" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AC222" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="AD222" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="AE222" t="inlineStr">
         <is>
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="Z223" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AA223" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AB223" t="n">
         <v>3046</v>
       </c>
       <c r="AC223" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AD223" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AE223" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         </is>
       </c>
       <c r="Z224" t="n">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="AA224" t="n">
         <v>975</v>
@@ -28778,10 +28778,10 @@
         <v>5351</v>
       </c>
       <c r="AC224" t="n">
-        <v>60486</v>
+        <v>60519</v>
       </c>
       <c r="AD224" t="n">
-        <v>269599</v>
+        <v>269860</v>
       </c>
       <c r="AE224" t="inlineStr">
         <is>
@@ -28898,19 +28898,19 @@
         </is>
       </c>
       <c r="Z225" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA225" t="n">
         <v>261</v>
       </c>
       <c r="AB225" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AC225" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AD225" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AE225" t="inlineStr">
         <is>
@@ -29027,19 +29027,19 @@
         </is>
       </c>
       <c r="Z226" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AA226" t="n">
         <v>638</v>
       </c>
       <c r="AB226" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AC226" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AD226" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AE226" t="inlineStr">
         <is>
@@ -29156,19 +29156,19 @@
         </is>
       </c>
       <c r="Z227" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA227" t="n">
         <v>9</v>
       </c>
       <c r="AB227" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC227" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD227" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE227" t="inlineStr">
         <is>
@@ -29277,19 +29277,19 @@
         </is>
       </c>
       <c r="Z228" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AA228" t="n">
         <v>1370</v>
       </c>
       <c r="AB228" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC228" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AD228" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AE228" t="inlineStr">
         <is>
@@ -29394,19 +29394,19 @@
         </is>
       </c>
       <c r="Z229" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AA229" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AB229" t="n">
         <v>260</v>
       </c>
       <c r="AC229" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AD229" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AE229" t="inlineStr">
         <is>
@@ -29517,13 +29517,13 @@
         <v>208</v>
       </c>
       <c r="AB230" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AC230" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AD230" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AE230" t="inlineStr">
         <is>
@@ -29628,19 +29628,19 @@
         </is>
       </c>
       <c r="Z231" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AA231" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AB231" t="n">
         <v>186</v>
       </c>
       <c r="AC231" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AD231" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AE231" t="inlineStr">
         <is>
@@ -29749,19 +29749,19 @@
         </is>
       </c>
       <c r="Z232" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AA232" t="n">
         <v>638</v>
       </c>
       <c r="AB232" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AC232" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AD232" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AE232" t="inlineStr">
         <is>
@@ -29870,19 +29870,19 @@
         </is>
       </c>
       <c r="Z233" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA233" t="n">
         <v>466</v>
       </c>
       <c r="AB233" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC233" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD233" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE233" t="inlineStr">
         <is>
@@ -29991,7 +29991,7 @@
         </is>
       </c>
       <c r="Z234" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA234" t="n">
         <v>874</v>
@@ -30000,10 +30000,10 @@
         <v>2983</v>
       </c>
       <c r="AC234" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD234" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE234" t="inlineStr">
         <is>
@@ -30112,19 +30112,19 @@
         </is>
       </c>
       <c r="Z235" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AA235" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AB235" t="n">
         <v>1388</v>
       </c>
       <c r="AC235" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AD235" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AE235" t="inlineStr">
         <is>
@@ -30235,13 +30235,13 @@
         <v>341</v>
       </c>
       <c r="AB236" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AC236" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AD236" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AE236" t="inlineStr">
         <is>
@@ -30356,13 +30356,13 @@
         <v>122</v>
       </c>
       <c r="AB237" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AC237" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AD237" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AE237" t="inlineStr">
         <is>
@@ -30471,19 +30471,19 @@
         </is>
       </c>
       <c r="Z238" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA238" t="n">
         <v>9</v>
       </c>
       <c r="AB238" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC238" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD238" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE238" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         </is>
       </c>
       <c r="Z239" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA239" t="n">
         <v>467</v>
@@ -30601,10 +30601,10 @@
         <v>10255</v>
       </c>
       <c r="AC239" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD239" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE239" t="inlineStr">
         <is>
@@ -30713,19 +30713,19 @@
         </is>
       </c>
       <c r="Z240" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA240" t="n">
         <v>261</v>
       </c>
       <c r="AB240" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AC240" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AD240" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AE240" t="inlineStr">
         <is>
@@ -30840,13 +30840,13 @@
         <v>208</v>
       </c>
       <c r="AB241" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AC241" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AD241" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AE241" t="inlineStr">
         <is>
@@ -30959,19 +30959,19 @@
         </is>
       </c>
       <c r="Z242" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA242" t="n">
         <v>42</v>
       </c>
       <c r="AB242" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC242" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD242" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE242" t="inlineStr">
         <is>
@@ -31080,19 +31080,19 @@
         </is>
       </c>
       <c r="Z243" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA243" t="n">
         <v>639</v>
       </c>
       <c r="AB243" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AC243" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AD243" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AE243" t="inlineStr">
         <is>
@@ -31205,19 +31205,19 @@
         </is>
       </c>
       <c r="Z244" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AA244" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AB244" t="n">
         <v>1388</v>
       </c>
       <c r="AC244" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AD244" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AE244" t="inlineStr">
         <is>
@@ -31330,19 +31330,19 @@
         </is>
       </c>
       <c r="Z245" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA245" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB245" t="n">
         <v>3677</v>
       </c>
       <c r="AC245" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD245" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE245" t="inlineStr">
         <is>
@@ -31457,13 +31457,13 @@
         <v>341</v>
       </c>
       <c r="AB246" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AC246" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AD246" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AE246" t="inlineStr">
         <is>
@@ -31576,19 +31576,19 @@
         </is>
       </c>
       <c r="Z247" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA247" t="n">
         <v>45</v>
       </c>
       <c r="AB247" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AC247" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AD247" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AE247" t="inlineStr">
         <is>
@@ -31701,19 +31701,19 @@
         </is>
       </c>
       <c r="Z248" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA248" t="n">
         <v>261</v>
       </c>
       <c r="AB248" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AC248" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AD248" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AE248" t="inlineStr">
         <is>
@@ -31826,19 +31826,19 @@
         </is>
       </c>
       <c r="Z249" t="n">
-        <v>2986</v>
+        <v>2968</v>
       </c>
       <c r="AA249" t="n">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="AB249" t="n">
         <v>1379</v>
       </c>
       <c r="AC249" t="n">
-        <v>82208</v>
+        <v>82214</v>
       </c>
       <c r="AD249" t="n">
-        <v>192365</v>
+        <v>192416</v>
       </c>
       <c r="AE249" t="inlineStr">
         <is>
@@ -31951,7 +31951,7 @@
         </is>
       </c>
       <c r="Z250" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA250" t="n">
         <v>467</v>
@@ -31960,10 +31960,10 @@
         <v>10255</v>
       </c>
       <c r="AC250" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD250" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE250" t="inlineStr">
         <is>
@@ -32076,19 +32076,19 @@
         </is>
       </c>
       <c r="Z251" t="n">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="AA251" t="n">
         <v>1317</v>
       </c>
       <c r="AB251" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AC251" t="n">
-        <v>80291</v>
+        <v>80311</v>
       </c>
       <c r="AD251" t="n">
-        <v>196984</v>
+        <v>197088</v>
       </c>
       <c r="AE251" t="inlineStr">
         <is>
@@ -32201,19 +32201,19 @@
         </is>
       </c>
       <c r="Z252" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AA252" t="n">
         <v>943</v>
       </c>
       <c r="AB252" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AC252" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AD252" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AE252" t="inlineStr">
         <is>
@@ -32326,19 +32326,19 @@
         </is>
       </c>
       <c r="Z253" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA253" t="n">
         <v>9</v>
       </c>
       <c r="AB253" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC253" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD253" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE253" t="inlineStr">
         <is>
@@ -32451,19 +32451,19 @@
         </is>
       </c>
       <c r="Z254" t="n">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AA254" t="n">
         <v>1229</v>
       </c>
       <c r="AB254" t="n">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="AC254" t="n">
-        <v>99948</v>
+        <v>99966</v>
       </c>
       <c r="AD254" t="n">
-        <v>212851</v>
+        <v>212934</v>
       </c>
       <c r="AE254" t="inlineStr">
         <is>
@@ -32576,19 +32576,19 @@
         </is>
       </c>
       <c r="Z255" t="n">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="AA255" t="n">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="AB255" t="n">
         <v>928</v>
       </c>
       <c r="AC255" t="n">
-        <v>42462</v>
+        <v>42472</v>
       </c>
       <c r="AD255" t="n">
-        <v>101995</v>
+        <v>102085</v>
       </c>
       <c r="AE255" t="inlineStr">
         <is>
@@ -32701,19 +32701,19 @@
         </is>
       </c>
       <c r="Z256" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AA256" t="n">
         <v>943</v>
       </c>
       <c r="AB256" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AC256" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AD256" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AE256" t="inlineStr">
         <is>
@@ -32826,19 +32826,19 @@
         </is>
       </c>
       <c r="Z257" t="n">
-        <v>3643</v>
+        <v>3617</v>
       </c>
       <c r="AA257" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AB257" t="n">
         <v>1281</v>
       </c>
       <c r="AC257" t="n">
-        <v>100497</v>
+        <v>100499</v>
       </c>
       <c r="AD257" t="n">
-        <v>188739</v>
+        <v>188790</v>
       </c>
       <c r="AE257" t="inlineStr">
         <is>
@@ -32955,19 +32955,19 @@
         </is>
       </c>
       <c r="Z258" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AA258" t="n">
         <v>1370</v>
       </c>
       <c r="AB258" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC258" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AD258" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AE258" t="inlineStr">
         <is>
@@ -33086,13 +33086,13 @@
         <v>208</v>
       </c>
       <c r="AB259" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AC259" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AD259" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AE259" t="inlineStr">
         <is>
@@ -33209,19 +33209,19 @@
         </is>
       </c>
       <c r="Z260" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AA260" t="n">
         <v>943</v>
       </c>
       <c r="AB260" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AC260" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AD260" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AE260" t="inlineStr">
         <is>
@@ -33338,19 +33338,19 @@
         </is>
       </c>
       <c r="Z261" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA261" t="n">
         <v>42</v>
       </c>
       <c r="AB261" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC261" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD261" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE261" t="inlineStr">
         <is>
@@ -33463,19 +33463,19 @@
         </is>
       </c>
       <c r="Z262" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA262" t="n">
         <v>639</v>
       </c>
       <c r="AB262" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="AC262" t="n">
-        <v>224491</v>
+        <v>224575</v>
       </c>
       <c r="AD262" t="n">
-        <v>396379</v>
+        <v>396555</v>
       </c>
       <c r="AE262" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         </is>
       </c>
       <c r="Z263" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA263" t="n">
         <v>874</v>
@@ -33601,10 +33601,10 @@
         <v>2983</v>
       </c>
       <c r="AC263" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD263" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE263" t="inlineStr">
         <is>
@@ -33727,13 +33727,13 @@
         <v>302</v>
       </c>
       <c r="AB264" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AC264" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AD264" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AE264" t="inlineStr">
         <is>
@@ -33850,19 +33850,19 @@
         </is>
       </c>
       <c r="Z265" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA265" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB265" t="n">
         <v>3677</v>
       </c>
       <c r="AC265" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD265" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE265" t="inlineStr">
         <is>
@@ -33979,19 +33979,19 @@
         </is>
       </c>
       <c r="Z266" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AA266" t="n">
         <v>1419</v>
       </c>
       <c r="AB266" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AC266" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AD266" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AE266" t="inlineStr">
         <is>
@@ -34114,13 +34114,13 @@
         <v>122</v>
       </c>
       <c r="AB267" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AC267" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AD267" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AE267" t="inlineStr">
         <is>
@@ -34237,19 +34237,19 @@
         </is>
       </c>
       <c r="Z268" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA268" t="n">
         <v>9</v>
       </c>
       <c r="AB268" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC268" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD268" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE268" t="inlineStr">
         <is>
@@ -34366,7 +34366,7 @@
         </is>
       </c>
       <c r="Z269" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA269" t="n">
         <v>467</v>
@@ -34375,10 +34375,10 @@
         <v>10255</v>
       </c>
       <c r="AC269" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD269" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE269" t="inlineStr">
         <is>
@@ -34491,19 +34491,19 @@
         </is>
       </c>
       <c r="Z270" t="n">
-        <v>1787</v>
+        <v>1818</v>
       </c>
       <c r="AA270" t="n">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="AB270" t="n">
         <v>96</v>
       </c>
       <c r="AC270" t="n">
-        <v>28324</v>
+        <v>28326</v>
       </c>
       <c r="AD270" t="n">
-        <v>54310</v>
+        <v>54312</v>
       </c>
       <c r="AE270" t="inlineStr">
         <is>
@@ -34620,19 +34620,19 @@
         </is>
       </c>
       <c r="Z271" t="n">
-        <v>2550</v>
+        <v>2587</v>
       </c>
       <c r="AA271" t="n">
         <v>1695</v>
       </c>
       <c r="AB271" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AC271" t="n">
-        <v>56864</v>
+        <v>56872</v>
       </c>
       <c r="AD271" t="n">
-        <v>146257</v>
+        <v>146304</v>
       </c>
       <c r="AE271" t="inlineStr">
         <is>
@@ -34749,19 +34749,19 @@
         </is>
       </c>
       <c r="Z272" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA272" t="n">
         <v>261</v>
       </c>
       <c r="AB272" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AC272" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AD272" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AE272" t="inlineStr">
         <is>
@@ -34878,19 +34878,19 @@
         </is>
       </c>
       <c r="Z273" t="n">
-        <v>2986</v>
+        <v>2968</v>
       </c>
       <c r="AA273" t="n">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="AB273" t="n">
         <v>1379</v>
       </c>
       <c r="AC273" t="n">
-        <v>82208</v>
+        <v>82214</v>
       </c>
       <c r="AD273" t="n">
-        <v>192365</v>
+        <v>192416</v>
       </c>
       <c r="AE273" t="inlineStr">
         <is>
@@ -35007,19 +35007,19 @@
         </is>
       </c>
       <c r="Z274" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA274" t="n">
         <v>17</v>
       </c>
       <c r="AB274" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AC274" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AD274" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AE274" t="inlineStr">
         <is>
@@ -35136,19 +35136,19 @@
         </is>
       </c>
       <c r="Z275" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA275" t="n">
         <v>716</v>
       </c>
       <c r="AB275" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC275" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD275" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE275" t="inlineStr">
         <is>
@@ -35265,19 +35265,19 @@
         </is>
       </c>
       <c r="Z276" t="n">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="AA276" t="n">
         <v>4810</v>
       </c>
       <c r="AB276" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC276" t="n">
-        <v>8273</v>
+        <v>8279</v>
       </c>
       <c r="AD276" t="n">
-        <v>24288</v>
+        <v>24301</v>
       </c>
       <c r="AE276" t="inlineStr">
         <is>
@@ -35394,19 +35394,19 @@
         </is>
       </c>
       <c r="Z277" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AA277" t="n">
         <v>638</v>
       </c>
       <c r="AB277" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AC277" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AD277" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AE277" t="inlineStr">
         <is>
@@ -35523,19 +35523,19 @@
         </is>
       </c>
       <c r="Z278" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA278" t="n">
         <v>716</v>
       </c>
       <c r="AB278" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC278" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD278" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE278" t="inlineStr">
         <is>
@@ -35652,19 +35652,19 @@
         </is>
       </c>
       <c r="Z279" t="n">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="AA279" t="n">
         <v>1136</v>
       </c>
       <c r="AB279" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="AC279" t="n">
-        <v>106077</v>
+        <v>106085</v>
       </c>
       <c r="AD279" t="n">
-        <v>232527</v>
+        <v>232604</v>
       </c>
       <c r="AE279" t="inlineStr">
         <is>
@@ -35781,19 +35781,19 @@
         </is>
       </c>
       <c r="Z280" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA280" t="n">
         <v>466</v>
       </c>
       <c r="AB280" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC280" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD280" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE280" t="inlineStr">
         <is>
@@ -35910,7 +35910,7 @@
         </is>
       </c>
       <c r="Z281" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA281" t="n">
         <v>874</v>
@@ -35919,10 +35919,10 @@
         <v>2983</v>
       </c>
       <c r="AC281" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD281" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE281" t="inlineStr">
         <is>
@@ -36045,13 +36045,13 @@
         <v>302</v>
       </c>
       <c r="AB282" t="n">
-        <v>29777</v>
+        <v>29794</v>
       </c>
       <c r="AC282" t="n">
-        <v>384919</v>
+        <v>385173</v>
       </c>
       <c r="AD282" t="n">
-        <v>716578</v>
+        <v>717128</v>
       </c>
       <c r="AE282" t="inlineStr">
         <is>
@@ -36168,19 +36168,19 @@
         </is>
       </c>
       <c r="Z283" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA283" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB283" t="n">
         <v>3677</v>
       </c>
       <c r="AC283" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD283" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE283" t="inlineStr">
         <is>
@@ -36297,19 +36297,19 @@
         </is>
       </c>
       <c r="Z284" t="n">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="AA284" t="n">
         <v>1419</v>
       </c>
       <c r="AB284" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AC284" t="n">
-        <v>72794</v>
+        <v>72806</v>
       </c>
       <c r="AD284" t="n">
-        <v>181163</v>
+        <v>181226</v>
       </c>
       <c r="AE284" t="inlineStr">
         <is>
@@ -36426,19 +36426,19 @@
         </is>
       </c>
       <c r="Z285" t="n">
-        <v>2369</v>
+        <v>2353</v>
       </c>
       <c r="AA285" t="n">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="AB285" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AC285" t="n">
-        <v>43442</v>
+        <v>43447</v>
       </c>
       <c r="AD285" t="n">
-        <v>107825</v>
+        <v>107867</v>
       </c>
       <c r="AE285" t="inlineStr">
         <is>
@@ -36555,19 +36555,19 @@
         </is>
       </c>
       <c r="Z286" t="n">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="AA286" t="n">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="AB286" t="n">
         <v>1015</v>
       </c>
       <c r="AC286" t="n">
-        <v>34966</v>
+        <v>34977</v>
       </c>
       <c r="AD286" t="n">
-        <v>67980</v>
+        <v>68011</v>
       </c>
       <c r="AE286" t="inlineStr">
         <is>
@@ -36684,7 +36684,7 @@
         </is>
       </c>
       <c r="Z287" t="n">
-        <v>2387</v>
+        <v>2413</v>
       </c>
       <c r="AA287" t="n">
         <v>1996</v>
@@ -36693,10 +36693,10 @@
         <v>1142</v>
       </c>
       <c r="AC287" t="n">
-        <v>52930</v>
+        <v>52934</v>
       </c>
       <c r="AD287" t="n">
-        <v>119163</v>
+        <v>119221</v>
       </c>
       <c r="AE287" t="inlineStr">
         <is>
@@ -36813,19 +36813,19 @@
         </is>
       </c>
       <c r="Z288" t="n">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="AA288" t="n">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="AB288" t="n">
         <v>312</v>
       </c>
       <c r="AC288" t="n">
-        <v>26022</v>
+        <v>26024</v>
       </c>
       <c r="AD288" t="n">
-        <v>53129</v>
+        <v>53150</v>
       </c>
       <c r="AE288" t="inlineStr">
         <is>
@@ -36942,19 +36942,19 @@
         </is>
       </c>
       <c r="Z289" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="AA289" t="n">
         <v>772</v>
       </c>
       <c r="AB289" t="n">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="AC289" t="n">
-        <v>152563</v>
+        <v>152592</v>
       </c>
       <c r="AD289" t="n">
-        <v>337409</v>
+        <v>337604</v>
       </c>
       <c r="AE289" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         </is>
       </c>
       <c r="Z290" t="n">
-        <v>4391</v>
+        <v>4384</v>
       </c>
       <c r="AA290" t="n">
         <v>912</v>
@@ -37080,10 +37080,10 @@
         <v>1465</v>
       </c>
       <c r="AC290" t="n">
-        <v>137883</v>
+        <v>137897</v>
       </c>
       <c r="AD290" t="n">
-        <v>286332</v>
+        <v>286467</v>
       </c>
       <c r="AE290" t="inlineStr">
         <is>
@@ -37196,19 +37196,19 @@
         </is>
       </c>
       <c r="Z291" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA291" t="n">
         <v>17</v>
       </c>
       <c r="AB291" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AC291" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AD291" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AE291" t="inlineStr">
         <is>
@@ -37321,19 +37321,19 @@
         </is>
       </c>
       <c r="Z292" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA292" t="n">
         <v>42</v>
       </c>
       <c r="AB292" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC292" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD292" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE292" t="inlineStr">
         <is>
@@ -37442,7 +37442,7 @@
         </is>
       </c>
       <c r="Z293" t="n">
-        <v>2060</v>
+        <v>2075</v>
       </c>
       <c r="AA293" t="n">
         <v>964</v>
@@ -37451,10 +37451,10 @@
         <v>766</v>
       </c>
       <c r="AC293" t="n">
-        <v>150590</v>
+        <v>150633</v>
       </c>
       <c r="AD293" t="n">
-        <v>271722</v>
+        <v>271802</v>
       </c>
       <c r="AE293" t="inlineStr">
         <is>
@@ -37479,16 +37479,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="C294" t="n">
         <v>7.57</v>
       </c>
       <c r="D294" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E294" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F294" t="n">
         <v>28</v>
@@ -37497,16 +37497,16 @@
         <v>28</v>
       </c>
       <c r="H294" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I294" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J294" t="n">
         <v>3</v>
       </c>
       <c r="K294" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -37571,19 +37571,19 @@
         </is>
       </c>
       <c r="Z294" t="n">
-        <v>3951</v>
+        <v>3935</v>
       </c>
       <c r="AA294" t="n">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AB294" t="n">
         <v>472</v>
       </c>
       <c r="AC294" t="n">
-        <v>55031</v>
+        <v>55040</v>
       </c>
       <c r="AD294" t="n">
-        <v>114589</v>
+        <v>114627</v>
       </c>
       <c r="AE294" t="inlineStr">
         <is>
@@ -37608,16 +37608,16 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="C295" t="n">
         <v>7.57</v>
       </c>
       <c r="D295" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E295" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F295" t="n">
         <v>28</v>
@@ -37626,16 +37626,16 @@
         <v>28</v>
       </c>
       <c r="H295" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I295" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J295" t="n">
         <v>3</v>
       </c>
       <c r="K295" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -37702,13 +37702,13 @@
         <v>208</v>
       </c>
       <c r="AB295" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AC295" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AD295" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AE295" t="inlineStr">
         <is>
@@ -37733,16 +37733,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="C296" t="n">
         <v>7.57</v>
       </c>
       <c r="D296" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E296" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F296" t="n">
         <v>28</v>
@@ -37751,16 +37751,16 @@
         <v>28</v>
       </c>
       <c r="H296" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I296" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J296" t="n">
         <v>3</v>
       </c>
       <c r="K296" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -37821,19 +37821,19 @@
         </is>
       </c>
       <c r="Z296" t="n">
-        <v>4177</v>
+        <v>4208</v>
       </c>
       <c r="AA296" t="n">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="AB296" t="n">
         <v>186</v>
       </c>
       <c r="AC296" t="n">
-        <v>42394</v>
+        <v>42403</v>
       </c>
       <c r="AD296" t="n">
-        <v>76339</v>
+        <v>76354</v>
       </c>
       <c r="AE296" t="inlineStr">
         <is>
@@ -37858,16 +37858,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="C297" t="n">
         <v>7.57</v>
       </c>
       <c r="D297" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E297" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F297" t="n">
         <v>28</v>
@@ -37876,16 +37876,16 @@
         <v>28</v>
       </c>
       <c r="H297" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I297" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J297" t="n">
         <v>3</v>
       </c>
       <c r="K297" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -37950,19 +37950,19 @@
         </is>
       </c>
       <c r="Z297" t="n">
-        <v>1856</v>
+        <v>1883</v>
       </c>
       <c r="AA297" t="n">
         <v>1317</v>
       </c>
       <c r="AB297" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="AC297" t="n">
-        <v>80291</v>
+        <v>80311</v>
       </c>
       <c r="AD297" t="n">
-        <v>196984</v>
+        <v>197088</v>
       </c>
       <c r="AE297" t="inlineStr">
         <is>
@@ -37987,16 +37987,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="C298" t="n">
         <v>7.57</v>
       </c>
       <c r="D298" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E298" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F298" t="n">
         <v>28</v>
@@ -38005,16 +38005,16 @@
         <v>28</v>
       </c>
       <c r="H298" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I298" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J298" t="n">
         <v>3</v>
       </c>
       <c r="K298" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -38079,19 +38079,19 @@
         </is>
       </c>
       <c r="Z298" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA298" t="n">
         <v>716</v>
       </c>
       <c r="AB298" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC298" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD298" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE298" t="inlineStr">
         <is>
@@ -38116,16 +38116,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="C299" t="n">
         <v>7.57</v>
       </c>
       <c r="D299" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E299" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F299" t="n">
         <v>28</v>
@@ -38134,16 +38134,16 @@
         <v>28</v>
       </c>
       <c r="H299" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I299" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J299" t="n">
         <v>3</v>
       </c>
       <c r="K299" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         </is>
       </c>
       <c r="Z299" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AA299" t="n">
         <v>484</v>
@@ -38217,10 +38217,10 @@
         <v>4174</v>
       </c>
       <c r="AC299" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AD299" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AE299" t="inlineStr">
         <is>
@@ -38245,16 +38245,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="C300" t="n">
         <v>7.57</v>
       </c>
       <c r="D300" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E300" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F300" t="n">
         <v>28</v>
@@ -38263,16 +38263,16 @@
         <v>28</v>
       </c>
       <c r="H300" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I300" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J300" t="n">
         <v>3</v>
       </c>
       <c r="K300" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -38337,19 +38337,19 @@
         </is>
       </c>
       <c r="Z300" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA300" t="n">
         <v>42</v>
       </c>
       <c r="AB300" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC300" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD300" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE300" t="inlineStr">
         <is>
@@ -38374,16 +38374,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>172.3</v>
+        <v>172.9</v>
       </c>
       <c r="C301" t="n">
         <v>7.57</v>
       </c>
       <c r="D301" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E301" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F301" t="n">
         <v>28</v>
@@ -38392,16 +38392,16 @@
         <v>28</v>
       </c>
       <c r="H301" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I301" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="J301" t="n">
         <v>3</v>
       </c>
       <c r="K301" t="n">
-        <v>10384</v>
+        <v>10419</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -38466,7 +38466,7 @@
         </is>
       </c>
       <c r="Z301" t="n">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="AA301" t="n">
         <v>1361</v>
@@ -38475,10 +38475,10 @@
         <v>2067</v>
       </c>
       <c r="AC301" t="n">
-        <v>91608</v>
+        <v>91626</v>
       </c>
       <c r="AD301" t="n">
-        <v>190549</v>
+        <v>190661</v>
       </c>
       <c r="AE301" t="inlineStr">
         <is>
@@ -38587,19 +38587,19 @@
         </is>
       </c>
       <c r="Z302" t="n">
-        <v>2955</v>
+        <v>2934</v>
       </c>
       <c r="AA302" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="AB302" t="n">
         <v>260</v>
       </c>
       <c r="AC302" t="n">
-        <v>27834</v>
+        <v>27840</v>
       </c>
       <c r="AD302" t="n">
-        <v>56599</v>
+        <v>56606</v>
       </c>
       <c r="AE302" t="inlineStr">
         <is>
@@ -38712,19 +38712,19 @@
         </is>
       </c>
       <c r="Z303" t="n">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AA303" t="n">
         <v>716</v>
       </c>
       <c r="AB303" t="n">
-        <v>8827</v>
+        <v>8828</v>
       </c>
       <c r="AC303" t="n">
-        <v>146166</v>
+        <v>146223</v>
       </c>
       <c r="AD303" t="n">
-        <v>359363</v>
+        <v>359562</v>
       </c>
       <c r="AE303" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         </is>
       </c>
       <c r="Z304" t="n">
-        <v>2458</v>
+        <v>2443</v>
       </c>
       <c r="AA304" t="n">
         <v>484</v>
@@ -38846,10 +38846,10 @@
         <v>4174</v>
       </c>
       <c r="AC304" t="n">
-        <v>260340</v>
+        <v>260389</v>
       </c>
       <c r="AD304" t="n">
-        <v>499813</v>
+        <v>500003</v>
       </c>
       <c r="AE304" t="inlineStr">
         <is>
@@ -38962,7 +38962,7 @@
         </is>
       </c>
       <c r="Z305" t="n">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AA305" t="n">
         <v>874</v>
@@ -38971,10 +38971,10 @@
         <v>2983</v>
       </c>
       <c r="AC305" t="n">
-        <v>178880</v>
+        <v>178910</v>
       </c>
       <c r="AD305" t="n">
-        <v>304856</v>
+        <v>304988</v>
       </c>
       <c r="AE305" t="inlineStr">
         <is>
@@ -39089,13 +39089,13 @@
         <v>341</v>
       </c>
       <c r="AB306" t="n">
-        <v>13625</v>
+        <v>13630</v>
       </c>
       <c r="AC306" t="n">
-        <v>346709</v>
+        <v>346867</v>
       </c>
       <c r="AD306" t="n">
-        <v>671007</v>
+        <v>671385</v>
       </c>
       <c r="AE306" t="inlineStr">
         <is>
@@ -39208,19 +39208,19 @@
         </is>
       </c>
       <c r="Z307" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA307" t="n">
         <v>9</v>
       </c>
       <c r="AB307" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC307" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD307" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE307" t="inlineStr">
         <is>
@@ -39333,7 +39333,7 @@
         </is>
       </c>
       <c r="Z308" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AA308" t="n">
         <v>467</v>
@@ -39342,10 +39342,10 @@
         <v>10255</v>
       </c>
       <c r="AC308" t="n">
-        <v>243471</v>
+        <v>243545</v>
       </c>
       <c r="AD308" t="n">
-        <v>512712</v>
+        <v>512957</v>
       </c>
       <c r="AE308" t="inlineStr">
         <is>
@@ -39454,19 +39454,19 @@
         </is>
       </c>
       <c r="Z309" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AA309" t="n">
         <v>913</v>
       </c>
       <c r="AB309" t="n">
-        <v>6370</v>
+        <v>6372</v>
       </c>
       <c r="AC309" t="n">
-        <v>141740</v>
+        <v>141779</v>
       </c>
       <c r="AD309" t="n">
-        <v>286236</v>
+        <v>286346</v>
       </c>
       <c r="AE309" t="inlineStr">
         <is>
@@ -39575,19 +39575,19 @@
         </is>
       </c>
       <c r="Z310" t="n">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="AA310" t="n">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="AB310" t="n">
         <v>182</v>
       </c>
       <c r="AC310" t="n">
-        <v>28571</v>
+        <v>28583</v>
       </c>
       <c r="AD310" t="n">
-        <v>50228</v>
+        <v>50248</v>
       </c>
       <c r="AE310" t="inlineStr">
         <is>
@@ -39700,19 +39700,19 @@
         </is>
       </c>
       <c r="Z311" t="n">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="AA311" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AB311" t="n">
         <v>3046</v>
       </c>
       <c r="AC311" t="n">
-        <v>86901</v>
+        <v>86921</v>
       </c>
       <c r="AD311" t="n">
-        <v>191982</v>
+        <v>192092</v>
       </c>
       <c r="AE311" t="inlineStr">
         <is>
@@ -39821,19 +39821,19 @@
         </is>
       </c>
       <c r="Z312" t="n">
-        <v>8693</v>
+        <v>8678</v>
       </c>
       <c r="AA312" t="n">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="AB312" t="n">
         <v>187</v>
       </c>
       <c r="AC312" t="n">
-        <v>27564</v>
+        <v>27567</v>
       </c>
       <c r="AD312" t="n">
-        <v>51207</v>
+        <v>51219</v>
       </c>
       <c r="AE312" t="inlineStr">
         <is>
@@ -39946,19 +39946,19 @@
         </is>
       </c>
       <c r="Z313" t="n">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AA313" t="n">
         <v>261</v>
       </c>
       <c r="AB313" t="n">
-        <v>16780</v>
+        <v>16786</v>
       </c>
       <c r="AC313" t="n">
-        <v>387605</v>
+        <v>387745</v>
       </c>
       <c r="AD313" t="n">
-        <v>799739</v>
+        <v>800077</v>
       </c>
       <c r="AE313" t="inlineStr">
         <is>
@@ -40071,19 +40071,19 @@
         </is>
       </c>
       <c r="Z314" t="n">
-        <v>3176</v>
+        <v>3215</v>
       </c>
       <c r="AA314" t="n">
         <v>1942</v>
       </c>
       <c r="AB314" t="n">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC314" t="n">
-        <v>45203</v>
+        <v>45220</v>
       </c>
       <c r="AD314" t="n">
-        <v>122688</v>
+        <v>122807</v>
       </c>
       <c r="AE314" t="inlineStr">
         <is>
@@ -40196,19 +40196,19 @@
         </is>
       </c>
       <c r="Z315" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="AA315" t="n">
         <v>943</v>
       </c>
       <c r="AB315" t="n">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="AC315" t="n">
-        <v>131780</v>
+        <v>131797</v>
       </c>
       <c r="AD315" t="n">
-        <v>277596</v>
+        <v>277635</v>
       </c>
       <c r="AE315" t="inlineStr">
         <is>
@@ -40321,19 +40321,19 @@
         </is>
       </c>
       <c r="Z316" t="n">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AA316" t="n">
         <v>1370</v>
       </c>
       <c r="AB316" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="AC316" t="n">
-        <v>86305</v>
+        <v>86319</v>
       </c>
       <c r="AD316" t="n">
-        <v>189192</v>
+        <v>189276</v>
       </c>
       <c r="AE316" t="inlineStr">
         <is>
@@ -40446,19 +40446,19 @@
         </is>
       </c>
       <c r="Z317" t="n">
-        <v>2808</v>
+        <v>2829</v>
       </c>
       <c r="AA317" t="n">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="AB317" t="n">
         <v>1150</v>
       </c>
       <c r="AC317" t="n">
-        <v>79400</v>
+        <v>79411</v>
       </c>
       <c r="AD317" t="n">
-        <v>165669</v>
+        <v>165734</v>
       </c>
       <c r="AE317" t="inlineStr">
         <is>
@@ -40571,19 +40571,19 @@
         </is>
       </c>
       <c r="Z318" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="AA318" t="n">
         <v>638</v>
       </c>
       <c r="AB318" t="n">
-        <v>8547</v>
+        <v>8558</v>
       </c>
       <c r="AC318" t="n">
-        <v>171967</v>
+        <v>172117</v>
       </c>
       <c r="AD318" t="n">
-        <v>396752</v>
+        <v>397130</v>
       </c>
       <c r="AE318" t="inlineStr">
         <is>
@@ -40696,19 +40696,19 @@
         </is>
       </c>
       <c r="Z319" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA319" t="n">
         <v>42</v>
       </c>
       <c r="AB319" t="n">
-        <v>86255</v>
+        <v>86295</v>
       </c>
       <c r="AC319" t="n">
-        <v>1014558</v>
+        <v>1015015</v>
       </c>
       <c r="AD319" t="n">
-        <v>1965187</v>
+        <v>1966181</v>
       </c>
       <c r="AE319" t="inlineStr">
         <is>
@@ -40821,19 +40821,19 @@
         </is>
       </c>
       <c r="Z320" t="n">
-        <v>6887</v>
+        <v>6900</v>
       </c>
       <c r="AA320" t="n">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="AB320" t="n">
         <v>360</v>
       </c>
       <c r="AC320" t="n">
-        <v>81363</v>
+        <v>81380</v>
       </c>
       <c r="AD320" t="n">
-        <v>153401</v>
+        <v>153499</v>
       </c>
       <c r="AE320" t="inlineStr">
         <is>
@@ -40946,19 +40946,19 @@
         </is>
       </c>
       <c r="Z321" t="n">
-        <v>1627</v>
+        <v>1640</v>
       </c>
       <c r="AA321" t="n">
         <v>466</v>
       </c>
       <c r="AB321" t="n">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="AC321" t="n">
-        <v>247023</v>
+        <v>247060</v>
       </c>
       <c r="AD321" t="n">
-        <v>514273</v>
+        <v>514432</v>
       </c>
       <c r="AE321" t="inlineStr">
         <is>
@@ -41071,19 +41071,19 @@
         </is>
       </c>
       <c r="Z322" t="n">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="AA322" t="n">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="AB322" t="n">
         <v>3677</v>
       </c>
       <c r="AC322" t="n">
-        <v>99473</v>
+        <v>99506</v>
       </c>
       <c r="AD322" t="n">
-        <v>179014</v>
+        <v>179117</v>
       </c>
       <c r="AE322" t="inlineStr">
         <is>
@@ -41196,19 +41196,19 @@
         </is>
       </c>
       <c r="Z323" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AA323" t="n">
         <v>45</v>
       </c>
       <c r="AB323" t="n">
-        <v>111705</v>
+        <v>111746</v>
       </c>
       <c r="AC323" t="n">
-        <v>1148687</v>
+        <v>1149283</v>
       </c>
       <c r="AD323" t="n">
-        <v>1921298</v>
+        <v>1922324</v>
       </c>
       <c r="AE323" t="inlineStr">
         <is>
@@ -41323,13 +41323,13 @@
         <v>208</v>
       </c>
       <c r="AB324" t="n">
-        <v>14408</v>
+        <v>14410</v>
       </c>
       <c r="AC324" t="n">
-        <v>539696</v>
+        <v>539935</v>
       </c>
       <c r="AD324" t="n">
-        <v>911525</v>
+        <v>912054</v>
       </c>
       <c r="AE324" t="inlineStr">
         <is>
@@ -41442,19 +41442,19 @@
         </is>
       </c>
       <c r="Z325" t="n">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AA325" t="n">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="AB325" t="n">
         <v>1388</v>
       </c>
       <c r="AC325" t="n">
-        <v>113308</v>
+        <v>113360</v>
       </c>
       <c r="AD325" t="n">
-        <v>202876</v>
+        <v>203059</v>
       </c>
       <c r="AE325" t="inlineStr">
         <is>
@@ -41567,19 +41567,19 @@
         </is>
       </c>
       <c r="Z326" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AA326" t="n">
         <v>9</v>
       </c>
       <c r="AB326" t="n">
-        <v>82973</v>
+        <v>83001</v>
       </c>
       <c r="AC326" t="n">
-        <v>2056155</v>
+        <v>2056915</v>
       </c>
       <c r="AD326" t="n">
-        <v>2984928</v>
+        <v>2986214</v>
       </c>
       <c r="AE326" t="inlineStr">
         <is>
@@ -41698,13 +41698,13 @@
         <v>122</v>
       </c>
       <c r="AB327" t="n">
-        <v>57506</v>
+        <v>57568</v>
       </c>
       <c r="AC327" t="n">
-        <v>465965</v>
+        <v>466402</v>
       </c>
       <c r="AD327" t="n">
-        <v>1227446</v>
+        <v>1228459</v>
       </c>
       <c r="AE327" t="inlineStr">
         <is>
@@ -41817,19 +41817,19 @@
         </is>
       </c>
       <c r="Z328" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA328" t="n">
         <v>17</v>
       </c>
       <c r="AB328" t="n">
-        <v>237054</v>
+        <v>237229</v>
       </c>
       <c r="AC328" t="n">
-        <v>1433761</v>
+        <v>1434888</v>
       </c>
       <c r="AD328" t="n">
-        <v>2522600</v>
+        <v>2524779</v>
       </c>
       <c r="AE328" t="inlineStr">
         <is>
